--- a/Index_Tagmapping_Report.xlsx
+++ b/Index_Tagmapping_Report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355">
   <si>
     <t>LLRosetta Element</t>
   </si>
@@ -1227,7 +1227,21 @@
     <t>Ex: 0FB7_006625_halsi_binder_01_index_online_6625.xml</t>
   </si>
   <si>
-    <t>Inconsistently available in LA</t>
+    <t>&lt;subtitle&gt; Inconsistently available in LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex- 0FB7_000002_halsi_binder_01_index_online_2.xml
+LL
+&lt;in:body&gt;
+ &lt;in:lev1&gt;
+LA
+&lt;in:body&gt;
+&lt;heading&gt;
+ &lt;title&gt;Index&lt;/title&gt;
+ &lt;subtitle&gt;A&lt;/subtitle&gt;
+&lt;/heading&gt;
+ &lt;in:lev1&gt;
+</t>
   </si>
   <si>
     <r>
@@ -1307,9 +1321,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1372,30 +1386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1411,60 +1403,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1479,9 +1426,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1498,19 +1497,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1572,85 +1586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1674,19 +1616,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,49 +1760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,16 +1892,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1903,6 +1923,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1923,25 +1952,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1957,27 +1977,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1986,141 +2003,138 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11231,7 +11245,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -11556,15 +11570,15 @@
       </c>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" ht="207" customHeight="1" spans="1:4">
       <c r="A33" s="20" t="s">
         <v>348</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C33" s="20" t="s">
         <v>350</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="D33" s="12"/>
     </row>
@@ -11576,7 +11590,7 @@
         <v>298</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D34" s="12"/>
     </row>
@@ -11585,10 +11599,10 @@
         <v>324</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D35" s="23">
         <v>43206</v>
